--- a/factor analysis results/debt_gdp.xlsx
+++ b/factor analysis results/debt_gdp.xlsx
@@ -451,34 +451,34 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>0.004506023969069181</v>
+        <v>0.009531576271144584</v>
       </c>
       <c r="C4">
-        <v>0.005808608356363988</v>
+        <v>0.007081831365857259</v>
       </c>
       <c r="D4">
-        <v>0.004948777947658745</v>
+        <v>0.007937856654002607</v>
       </c>
       <c r="E4">
-        <v>0.0009817837094553</v>
+        <v>0.006449844086698667</v>
       </c>
       <c r="F4">
-        <v>0.005602311460852196</v>
+        <v>0.006350005079221719</v>
       </c>
       <c r="G4">
-        <v>0.007719631227678155</v>
+        <v>0.01626836458133035</v>
       </c>
       <c r="H4">
-        <v>0.0001182625912561542</v>
+        <v>0.006865329662562014</v>
       </c>
       <c r="I4">
-        <v>0.004543069753692711</v>
+        <v>0.01092879548308554</v>
       </c>
       <c r="J4">
-        <v>-0.0002272314803228534</v>
+        <v>0.007666058864791809</v>
       </c>
       <c r="K4">
-        <v>-0.0007080023067502893</v>
+        <v>0.009712705645924238</v>
       </c>
     </row>
   </sheetData>

--- a/factor analysis results/debt_gdp.xlsx
+++ b/factor analysis results/debt_gdp.xlsx
@@ -386,13 +386,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K4"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -402,16 +402,14 @@
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -428,63 +426,51 @@
         <v>3</v>
       </c>
       <c r="F2" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G2" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H2" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I2" s="1">
-        <v>2</v>
-      </c>
-      <c r="J2" s="1">
         <v>3</v>
       </c>
-      <c r="K2" s="1">
-        <v>4</v>
-      </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B4">
-        <v>0.009531576271144584</v>
+        <v>0.008933448839533037</v>
       </c>
       <c r="C4">
-        <v>0.007081831365857259</v>
+        <v>0.008794247992597764</v>
       </c>
       <c r="D4">
-        <v>0.007937856654002607</v>
+        <v>0.00702469826538205</v>
       </c>
       <c r="E4">
-        <v>0.006449844086698667</v>
+        <v>0.006055623174030418</v>
       </c>
       <c r="F4">
-        <v>0.006350005079221719</v>
+        <v>0.01626836458133035</v>
       </c>
       <c r="G4">
-        <v>0.01626836458133035</v>
+        <v>0.007863423373416115</v>
       </c>
       <c r="H4">
-        <v>0.006865329662562014</v>
+        <v>0.01058097490108159</v>
       </c>
       <c r="I4">
-        <v>0.01092879548308554</v>
-      </c>
-      <c r="J4">
-        <v>0.007666058864791809</v>
-      </c>
-      <c r="K4">
-        <v>0.009712705645924238</v>
+        <v>0.01166751238240992</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="G1:K1"/>
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="F1:I1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
